--- a/策划_正式/工作簿1.xlsx
+++ b/策划_正式/工作簿1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaseDoc\FD\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaseDoc\LASwc\trunk\策划_正式\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>地形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
   </si>
   <si>
     <t>平地-石头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常走，正常位移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -105,22 +101,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">与player有直接碰撞，正常跳跃和行走，
+    <t>设计图例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平地-绿叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲叶、植物绿芽等，在水流原画之上，和平地石头的性质相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常走，正常位移
+可行走处以如图例所示的方法，如加上草地等来区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高低差-水上桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥和叶子交叉叠加，性质和本体相同
+空隙处高度低于player，进不去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">分两种，一种是远景，一种是背景，与player有直接碰撞，正常跳跃和行走，
 背景一般都有隐藏要素
 小黑冲刺可切断水流并查看到要素（这个想想就行了）
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设计图例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平地-绿叶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲叶、植物绿芽等，和平地石头的性质相似</t>
+    <t>平地-水面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player会沉下去并死亡，
+一般会有通行的路径，比如桥或者莲叶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,15 +246,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>23813</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:rowOff>904875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5738812</xdr:colOff>
+      <xdr:colOff>3745027</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>83233</xdr:rowOff>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -252,8 +271,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15335250" y="1000124"/>
-          <a:ext cx="5738812" cy="2607359"/>
+          <a:off x="15359063" y="1905000"/>
+          <a:ext cx="3721214" cy="1690688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -266,13 +285,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4933333</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>228256</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -304,13 +323,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7381875</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>39453</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -330,6 +349,477 @@
         <a:xfrm>
           <a:off x="15335250" y="8572499"/>
           <a:ext cx="7381875" cy="2563579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3595687</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2367160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="1000124"/>
+          <a:ext cx="3595687" cy="2367161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3595686</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>26136</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2024062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11263311" y="1023937"/>
+          <a:ext cx="4098075" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4714874</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667624" y="3524250"/>
+          <a:ext cx="4714875" cy="2574791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>41023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="6048375"/>
+          <a:ext cx="1905000" cy="2565148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5976937</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="11096625"/>
+          <a:ext cx="5976937" cy="2571210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1023937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2024062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="上箭头 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8763000" y="4548187"/>
+          <a:ext cx="952500" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3500438</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2101072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="原创作品：奇幻风格游戏【MDM】横版场景..."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18835688" y="1023937"/>
+          <a:ext cx="4167187" cy="2077260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5061980</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2500312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15335250" y="21193125"/>
+          <a:ext cx="5061980" cy="2500312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5024437</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>99914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="6048376"/>
+          <a:ext cx="5024437" cy="2624038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6267450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1876425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17" descr="原创作品：九月、原创游戏跑酷横版练习  "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15335250" y="6048375"/>
+          <a:ext cx="6267450" cy="1876425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4381501</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667626" y="21193125"/>
+          <a:ext cx="4381500" cy="2524706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -604,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="200.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -620,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -633,77 +1123,96 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
+      <c r="C2"/>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="200.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="200.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C4"/>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="200.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="200.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="200.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="200.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="200.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="200.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="200.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="200.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="200.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
